--- a/public/OvertimeData/template-spkl-rev.xlsx
+++ b/public/OvertimeData/template-spkl-rev.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED23468-A34D-4610-9657-9DFB72CDBCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641087F4-93C2-4437-BAED-7817A320964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="108" windowWidth="22344" windowHeight="7452" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet (8)" sheetId="72" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="72" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -54,13 +54,10 @@
     <t>Masuk</t>
   </si>
   <si>
-    <t>Piket</t>
-  </si>
-  <si>
-    <t>KJ-6-253</t>
-  </si>
-  <si>
-    <t>KJ-6-311</t>
+    <t>EK-PR-386</t>
+  </si>
+  <si>
+    <t>EK-PR-387</t>
   </si>
 </sst>
 </file>
@@ -164,7 +161,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,13 +173,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F1EAA3-C6C6-4043-A61B-B1F7DF67023C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -504,89 +504,47 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45619</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="7">
+        <v>45667</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
-        <v>45641</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="7">
+        <v>45667</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45635</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>45630</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="G3" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-    <sortCondition descending="1" ref="F2:F5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition descending="1" ref="F2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/public/OvertimeData/template-spkl-rev.xlsx
+++ b/public/OvertimeData/template-spkl-rev.xlsx
@@ -1,19 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCAF2BA-5FB4-4D01-8423-50E5D8F7BFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A54B4-03AB-4AF3-B70C-65904653AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3554EA16-69A7-4ACF-99E1-B00C11359C72}"/>
+    <workbookView xWindow="10656" yWindow="168" windowWidth="12192" windowHeight="11616" xr2:uid="{3554EA16-69A7-4ACF-99E1-B00C11359C72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="gagat (6)" sheetId="13" r:id="rId1"/>
+    <sheet name="gagat (5)" sheetId="12" r:id="rId2"/>
+    <sheet name="gagat (4)" sheetId="11" r:id="rId3"/>
+    <sheet name="gagat (3)" sheetId="10" r:id="rId4"/>
+    <sheet name="gagat (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="gagat" sheetId="8" r:id="rId6"/>
+    <sheet name="hrd" sheetId="7" r:id="rId7"/>
+    <sheet name="salsa" sheetId="6" r:id="rId8"/>
+    <sheet name="intan" sheetId="5" r:id="rId9"/>
+    <sheet name="anesi" sheetId="4" r:id="rId10"/>
+    <sheet name="riska" sheetId="3" r:id="rId11"/>
+    <sheet name="arif" sheetId="2" r:id="rId12"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -54,7 +66,127 @@
     <t>Masuk</t>
   </si>
   <si>
-    <t>KJ-5-152</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Libur</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>EN-4-025</t>
+  </si>
+  <si>
+    <t>EN-4-072</t>
+  </si>
+  <si>
+    <t>EN-4-047</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>EN-4-088</t>
+  </si>
+  <si>
+    <t>EN-4-100</t>
+  </si>
+  <si>
+    <t>EN-4-071</t>
+  </si>
+  <si>
+    <t>EN-4-112</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>EN-4-109</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>L 17 Maret</t>
+  </si>
+  <si>
+    <t>L 18 Maret</t>
+  </si>
+  <si>
+    <t>L 19 Maret</t>
+  </si>
+  <si>
+    <t>L 20 Maret</t>
+  </si>
+  <si>
+    <t>L 12 Maret</t>
+  </si>
+  <si>
+    <t>L 13 Maret</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>EN-4-043</t>
+  </si>
+  <si>
+    <t>EN-4-012</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>L 16 Maret</t>
+  </si>
+  <si>
+    <t>EN-4-062</t>
+  </si>
+  <si>
+    <t>EN-4-063</t>
+  </si>
+  <si>
+    <t>EN-4-058</t>
+  </si>
+  <si>
+    <t>EN-4-036</t>
+  </si>
+  <si>
+    <t>EN-4-097</t>
+  </si>
+  <si>
+    <t>L 14 Maret</t>
+  </si>
+  <si>
+    <t>EN-4-102</t>
+  </si>
+  <si>
+    <t>EN-4-103</t>
+  </si>
+  <si>
+    <t>EN-4-070</t>
+  </si>
+  <si>
+    <t>EN-4-110</t>
+  </si>
+  <si>
+    <t>EN-4-107</t>
   </si>
 </sst>
 </file>
@@ -64,12 +196,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -86,8 +225,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +245,14 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,36 +290,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{40E05724-62B3-4860-ACF1-ED96883A6333}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0F63E-F516-45DD-959A-A089AF351297}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A85AE22-C62D-4D5C-8ACC-69B3F5F5E981}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -492,7 +667,7 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
@@ -531,13 +706,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5">
-        <v>45731</v>
+        <v>45737</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -545,20 +720,22 @@
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5">
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -569,17 +746,19 @@
       <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5">
-        <v>45733</v>
+        <v>45739</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -590,17 +769,271 @@
       <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A59FF72-B4E3-427D-8C40-912470C5FECF}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="5">
-        <v>45734</v>
+        <v>45740</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -612,6 +1045,1280 @@
         <v>2</v>
       </c>
       <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45743</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45744</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45745</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45746</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357B7A1E-AEF9-462C-9181-1AC715C902C2}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45743</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="3">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45744</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45745</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1FC4F5-9E3A-49B5-8802-3651544949E7}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="C9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45743</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45745</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45746</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0F63E-F516-45DD-959A-A089AF351297}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45744</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45743</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45751</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45760</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45744</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L5">
@@ -620,4 +2327,2653 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB99D73-9722-4756-BA3B-E07D528F37F1}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5743F759-2FE9-4AE3-A469-2D1E646A1217}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC58735C-806E-4126-9772-CA9F800DB251}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6396E2A9-921B-4A7A-AE76-0046700801E2}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="3">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="3">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC54383-3290-4C47-942C-6E7C3A6DD853}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DC0A9A-6E4A-4D7E-97BC-5851B6219E88}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45746</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45749</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45750</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10245</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10245</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45737</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CD0DCC-CF22-42D9-9AB1-E82EE06888E1}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45743</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10237</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45744</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9">
+        <v>10237</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45745</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10237</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10237</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25334AF1-354C-446F-9A3F-FD60EA611518}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45738</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45739</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45740</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45741</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45742</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45743</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45744</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45745</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45761</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>